--- a/src/main/resources/excels/ExploreModel.xlsx
+++ b/src/main/resources/excels/ExploreModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>探索舰等级/区域</t>
   </si>
@@ -111,10 +111,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,664 +476,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14400</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12600</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10800</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7920</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6480</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5760</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5040</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4320</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3600</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O4" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" s="1">
+        <v>43200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17280</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16560</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15840</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15120</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14400</v>
+      </c>
+      <c r="I5" s="1">
+        <v>13680</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12960</v>
+      </c>
+      <c r="K5" s="1">
+        <v>12240</v>
+      </c>
+      <c r="L5" s="1">
+        <v>12500</v>
+      </c>
+      <c r="M5" s="1">
+        <v>17500</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B6" s="1">
+        <v>86400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21600</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20880</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20160</v>
+      </c>
+      <c r="G6" s="1">
+        <v>19440</v>
+      </c>
+      <c r="H6" s="1">
+        <v>18720</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>17280</v>
+      </c>
+      <c r="K6" s="1">
+        <v>16560</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="N6" s="1">
+        <v>12000</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>14400</v>
-      </c>
-      <c r="D4" s="1">
-        <v>12600</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10800</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9000</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7920</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7200</v>
-      </c>
-      <c r="I4" s="1">
-        <v>6480</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5760</v>
-      </c>
-      <c r="K4" s="1">
-        <v>5040</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4320</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3600</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2400</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43200</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>17280</v>
-      </c>
-      <c r="F5" s="1">
-        <v>16560</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15840</v>
-      </c>
-      <c r="H5" s="1">
-        <v>15120</v>
-      </c>
-      <c r="I5" s="1">
-        <v>14400</v>
-      </c>
-      <c r="J5" s="1">
-        <v>13680</v>
-      </c>
-      <c r="K5" s="1">
-        <v>12960</v>
-      </c>
-      <c r="L5" s="1">
-        <v>12240</v>
-      </c>
-      <c r="M5" s="1">
-        <v>12500</v>
-      </c>
-      <c r="N5" s="1">
-        <v>17500</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B7" s="1">
+        <v>172800</v>
+      </c>
+      <c r="C7" s="1">
         <v>86400</v>
       </c>
-      <c r="D6" s="1">
-        <v>43200</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D7" s="1">
+        <v>54000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25200</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24480</v>
+      </c>
+      <c r="G7" s="1">
+        <v>23760</v>
+      </c>
+      <c r="H7" s="1">
+        <v>23040</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22320</v>
+      </c>
+      <c r="J7" s="1">
         <v>21600</v>
       </c>
-      <c r="F6" s="1">
+      <c r="K7" s="1">
         <v>20880</v>
       </c>
-      <c r="G6" s="1">
-        <v>20160</v>
-      </c>
-      <c r="H6" s="1">
-        <v>19440</v>
-      </c>
-      <c r="I6" s="1">
-        <v>18720</v>
-      </c>
-      <c r="J6" s="1">
-        <v>18000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>17280</v>
-      </c>
-      <c r="L6" s="1">
-        <v>16560</v>
-      </c>
-      <c r="M6" s="1">
-        <v>45000</v>
-      </c>
-      <c r="N6" s="1">
-        <v>30000</v>
-      </c>
-      <c r="O6" s="1">
-        <v>12000</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>172800</v>
-      </c>
-      <c r="D7" s="1">
-        <v>86400</v>
-      </c>
-      <c r="E7" s="1">
-        <v>54000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25200</v>
-      </c>
-      <c r="G7" s="1">
-        <v>24480</v>
-      </c>
-      <c r="H7" s="1">
-        <v>23760</v>
-      </c>
-      <c r="I7" s="1">
-        <v>23040</v>
-      </c>
-      <c r="J7" s="1">
-        <v>22320</v>
-      </c>
-      <c r="K7" s="1">
-        <v>21600</v>
-      </c>
       <c r="L7" s="1">
-        <v>20880</v>
+        <v>75000</v>
       </c>
       <c r="M7" s="1">
         <v>75000</v>
       </c>
       <c r="N7" s="1">
-        <v>75000</v>
+        <v>16000</v>
       </c>
       <c r="O7" s="1">
-        <v>16000</v>
-      </c>
-      <c r="P7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>345600</v>
       </c>
       <c r="C8" s="1">
+        <v>172800</v>
+      </c>
+      <c r="D8" s="1">
+        <v>86400</v>
+      </c>
+      <c r="E8" s="1">
+        <v>54000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>28800</v>
+      </c>
+      <c r="G8" s="1">
+        <v>28080</v>
+      </c>
+      <c r="H8" s="1">
+        <v>27360</v>
+      </c>
+      <c r="I8" s="1">
+        <v>26640</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25920</v>
+      </c>
+      <c r="K8" s="1">
+        <v>25200</v>
+      </c>
+      <c r="L8" s="1">
+        <v>130000</v>
+      </c>
+      <c r="M8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>691200</v>
+      </c>
+      <c r="C9" s="1">
         <v>345600</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>172800</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>86400</v>
       </c>
-      <c r="F8" s="1">
-        <v>54000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>28800</v>
-      </c>
-      <c r="H8" s="1">
-        <v>28080</v>
-      </c>
-      <c r="I8" s="1">
-        <v>27360</v>
-      </c>
-      <c r="J8" s="1">
-        <v>26640</v>
-      </c>
-      <c r="K8" s="1">
-        <v>25920</v>
-      </c>
-      <c r="L8" s="1">
-        <v>25200</v>
-      </c>
-      <c r="M8" s="1">
-        <v>130000</v>
-      </c>
-      <c r="N8" s="1">
-        <v>100000</v>
-      </c>
-      <c r="O8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="F9" s="1">
+        <v>72000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>36000</v>
+      </c>
+      <c r="H9" s="1">
+        <v>35280</v>
+      </c>
+      <c r="I9" s="1">
+        <v>34560</v>
+      </c>
+      <c r="J9" s="1">
+        <v>33840</v>
+      </c>
+      <c r="K9" s="1">
+        <v>33120</v>
+      </c>
+      <c r="L9" s="1">
+        <v>240000</v>
+      </c>
+      <c r="M9" s="1">
+        <v>200000</v>
+      </c>
+      <c r="N9" s="1">
+        <v>48000</v>
+      </c>
+      <c r="O9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B10" s="1">
+        <v>1382400</v>
+      </c>
+      <c r="C10" s="1">
         <v>691200</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>345600</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E10" s="1">
         <v>172800</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
+        <v>108000</v>
+      </c>
+      <c r="G10" s="1">
         <v>86400</v>
       </c>
-      <c r="G9" s="1">
-        <v>72000</v>
-      </c>
-      <c r="H9" s="1">
-        <v>36000</v>
-      </c>
-      <c r="I9" s="1">
-        <v>35280</v>
-      </c>
-      <c r="J9" s="1">
-        <v>34560</v>
-      </c>
-      <c r="K9" s="1">
-        <v>33840</v>
-      </c>
-      <c r="L9" s="1">
-        <v>33120</v>
-      </c>
-      <c r="M9" s="1">
-        <v>240000</v>
-      </c>
-      <c r="N9" s="1">
-        <v>200000</v>
-      </c>
-      <c r="O9" s="1">
-        <v>48000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1382400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>691200</v>
-      </c>
-      <c r="E10" s="1">
-        <v>345600</v>
-      </c>
-      <c r="F10" s="1">
-        <v>172800</v>
-      </c>
-      <c r="G10" s="1">
-        <v>108000</v>
-      </c>
       <c r="H10" s="1">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="I10" s="1">
-        <v>43200</v>
+        <v>41760</v>
       </c>
       <c r="J10" s="1">
-        <v>41760</v>
+        <v>40320</v>
       </c>
       <c r="K10" s="1">
-        <v>40320</v>
+        <v>38880</v>
       </c>
       <c r="L10" s="1">
-        <v>38880</v>
+        <v>400000</v>
       </c>
       <c r="M10" s="1">
         <v>400000</v>
       </c>
       <c r="N10" s="1">
-        <v>400000</v>
+        <v>78750</v>
       </c>
       <c r="O10" s="1">
-        <v>78750</v>
-      </c>
-      <c r="P10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>8</v>
+        <v>2764800</v>
       </c>
       <c r="C11" s="1">
-        <v>2764800</v>
+        <v>1382400</v>
       </c>
       <c r="D11" s="1">
-        <v>1382400</v>
+        <v>691200</v>
       </c>
       <c r="E11" s="1">
-        <v>691200</v>
+        <v>345600</v>
       </c>
       <c r="F11" s="1">
-        <v>345600</v>
+        <v>259200</v>
       </c>
       <c r="G11" s="1">
-        <v>259200</v>
+        <v>172800</v>
       </c>
       <c r="H11" s="1">
-        <v>172800</v>
+        <v>108000</v>
       </c>
       <c r="I11" s="1">
-        <v>108000</v>
+        <v>54000</v>
       </c>
       <c r="J11" s="1">
-        <v>54000</v>
+        <v>53280</v>
       </c>
       <c r="K11" s="1">
-        <v>53280</v>
+        <v>50400</v>
       </c>
       <c r="L11" s="1">
-        <v>50400</v>
+        <v>600000</v>
       </c>
       <c r="M11" s="1">
         <v>600000</v>
       </c>
       <c r="N11" s="1">
-        <v>600000</v>
+        <v>120000</v>
       </c>
       <c r="O11" s="1">
-        <v>120000</v>
-      </c>
-      <c r="P11" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>5529600</v>
       </c>
       <c r="C12" s="1">
-        <v>5529600</v>
+        <v>2764800</v>
       </c>
       <c r="D12" s="1">
-        <v>2764800</v>
+        <v>1382400</v>
       </c>
       <c r="E12" s="1">
-        <v>1382400</v>
+        <v>691200</v>
       </c>
       <c r="F12" s="1">
-        <v>691200</v>
+        <v>518400</v>
       </c>
       <c r="G12" s="1">
-        <v>518400</v>
+        <v>345600</v>
       </c>
       <c r="H12" s="1">
-        <v>345600</v>
+        <v>216000</v>
       </c>
       <c r="I12" s="1">
-        <v>216000</v>
+        <v>126000</v>
       </c>
       <c r="J12" s="1">
-        <v>126000</v>
+        <v>57600</v>
       </c>
       <c r="K12" s="1">
-        <v>57600</v>
+        <v>55800</v>
       </c>
       <c r="L12" s="1">
-        <v>55800</v>
+        <v>800000</v>
       </c>
       <c r="M12" s="1">
         <v>800000</v>
       </c>
       <c r="N12" s="1">
-        <v>800000</v>
+        <v>175500</v>
       </c>
       <c r="O12" s="1">
-        <v>175500</v>
-      </c>
-      <c r="P12" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>11059200</v>
       </c>
       <c r="C13" s="1">
-        <v>11059200</v>
+        <v>5529600</v>
       </c>
       <c r="D13" s="1">
-        <v>5529600</v>
+        <v>2764800</v>
       </c>
       <c r="E13" s="1">
-        <v>2764800</v>
+        <v>1382400</v>
       </c>
       <c r="F13" s="1">
-        <v>1382400</v>
+        <v>1036800</v>
       </c>
       <c r="G13" s="1">
-        <v>1036800</v>
+        <v>691200</v>
       </c>
       <c r="H13" s="1">
-        <v>691200</v>
+        <v>432000</v>
       </c>
       <c r="I13" s="1">
-        <v>432000</v>
+        <v>324000</v>
       </c>
       <c r="J13" s="1">
-        <v>324000</v>
+        <v>180000</v>
       </c>
       <c r="K13" s="1">
-        <v>180000</v>
+        <v>57600</v>
       </c>
       <c r="L13" s="1">
-        <v>57600</v>
+        <v>1040000</v>
       </c>
       <c r="M13" s="1">
         <v>1040000</v>
       </c>
       <c r="N13" s="1">
-        <v>1040000</v>
+        <v>225000</v>
       </c>
       <c r="O13" s="1">
-        <v>225000</v>
-      </c>
-      <c r="P13" s="1">
         <v>22</v>
       </c>
     </row>

--- a/src/main/resources/excels/ExploreModel.xlsx
+++ b/src/main/resources/excels/ExploreModel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,8 +9,16 @@
   <sheets>
     <sheet name="ExploreModel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="ExploreModel" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\workspace\SVN\Client\Project\Assets\StreamingAssets\XmlDataSkeletons\ExploreModel.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,14 +119,13 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -165,20 +172,468 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -189,6 +644,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="ArrayOfExploreModel">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ExploreModel" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="section" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv5" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv6" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv7" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv8" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv9" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="lv10" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="gold" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="oil" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="newOil" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="diamond" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="ArrayOfExploreModel_映射" RootElement="ArrayOfExploreModel" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:O13" tableType="xml" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15" connectionId="1">
+  <autoFilter ref="A3:O13"/>
+  <tableColumns count="15">
+    <tableColumn id="1" uniqueName="section" name="section" dataDxfId="14">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/section" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="lv1" name="lv1" dataDxfId="13">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv1" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="lv2" name="lv2" dataDxfId="12">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv2" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="lv3" name="lv3" dataDxfId="11">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv3" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="lv4" name="lv4" dataDxfId="10">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv4" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="lv5" name="lv5" dataDxfId="9">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv5" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="lv6" name="lv6" dataDxfId="8">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv6" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="lv7" name="lv7" dataDxfId="7">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv7" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="lv8" name="lv8" dataDxfId="6">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv8" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="lv9" name="lv9" dataDxfId="5">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv9" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="lv10" name="lv10" dataDxfId="4">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/lv10" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="gold" name="gold" dataDxfId="3">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/gold" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="oil" name="oil" dataDxfId="2">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/oil" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="newOil" name="newOil" dataDxfId="1">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/newOil" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="diamond" name="diamond" dataDxfId="0">
+      <xmlColumnPr mapId="1" xpath="/ArrayOfExploreModel/ExploreModel/diamond" xmlDataType="integer"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -234,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +814,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +849,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,19 +1025,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="6" width="8" customWidth="1"/>
+    <col min="7" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,102 +1091,102 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -671,12 +1228,12 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -718,12 +1275,12 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="1">
@@ -765,12 +1322,12 @@
       <c r="N6" s="1">
         <v>12000</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -812,12 +1369,12 @@
       <c r="N7" s="1">
         <v>16000</v>
       </c>
-      <c r="O7" s="1">
-        <v>5</v>
+      <c r="O7" s="3">
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -859,12 +1416,12 @@
       <c r="N8" s="1">
         <v>20000</v>
       </c>
-      <c r="O8" s="1">
-        <v>7</v>
+      <c r="O8" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="1">
@@ -906,12 +1463,12 @@
       <c r="N9" s="1">
         <v>48000</v>
       </c>
-      <c r="O9" s="1">
-        <v>9</v>
+      <c r="O9" s="3">
+        <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="1">
@@ -953,12 +1510,12 @@
       <c r="N10" s="1">
         <v>78750</v>
       </c>
-      <c r="O10" s="1">
-        <v>12</v>
+      <c r="O10" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="1">
@@ -1000,12 +1557,12 @@
       <c r="N11" s="1">
         <v>120000</v>
       </c>
-      <c r="O11" s="1">
-        <v>16</v>
+      <c r="O11" s="3">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="1">
@@ -1047,60 +1604,62 @@
       <c r="N12" s="1">
         <v>175500</v>
       </c>
-      <c r="O12" s="1">
-        <v>19</v>
+      <c r="O12" s="3">
+        <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="8">
         <v>11059200</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="8">
         <v>5529600</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="8">
         <v>2764800</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="8">
         <v>1382400</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="8">
         <v>1036800</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="8">
         <v>691200</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="8">
         <v>432000</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="8">
         <v>324000</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="8">
         <v>180000</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="8">
         <v>57600</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="8">
         <v>1040000</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="8">
         <v>1040000</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="8">
         <v>225000</v>
       </c>
-      <c r="O13" s="1">
-        <v>22</v>
+      <c r="O13" s="9">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/src/main/resources/excels/ExploreModel.xlsx
+++ b/src/main/resources/excels/ExploreModel.xlsx
@@ -125,17 +125,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -679,7 +679,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="ArrayOfExploreModel_映射" RootElement="ArrayOfExploreModel" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+  <Map ID="1" Name="ArrayOfExploreModel" RootElement="ArrayOfExploreModel" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
@@ -1029,22 +1029,22 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A4" sqref="A4:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="6" width="8" customWidth="1"/>
     <col min="7" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
     <col min="12" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="7">
         <v>10</v>
       </c>
